--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Leite em po.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Leite em po.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Leite Em Pó Nestlé Ninho Fort+ Lata 380g</t>
+          <t>Leite Em Pó Ninho Sachê 350g Integral Instântaneo Promo 10% Desconto</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f084963d-634a-4a7a-b956-513aa908ba31.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3cd68c7-2bf1-4970-b047-de325d0ff1a7.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891000395943</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Leite Em Po La Serenissima Sch 300g Desn</t>
+          <t>Leite Em Pó Italac Instantaneo Sache 200g Desnatado</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff309863-7731-41b6-b9e2-a44f33440e1a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02383ebe-b9b8-4fff-b696-43159095d889.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7898080641700</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Leite Em Pó Itambe Sache 400g Integral</t>
+          <t>Leite Em Po Italac Sch 200g Desn</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5e9f1fb1-7920-45c5-b9ce-e0dafe223392.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1172216e-6e81-49aa-9225-825b7d00c6e6.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7898080640376</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Leite Em Pó Italac Integral Sachê 400g</t>
+          <t>Leite Em Po Italac Sch 200g Int</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/edd0b7c9-d56f-4dac-a255-731ebd515183.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c6c3d56a-cd21-41b8-bbbe-aaaec180e12c.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7898080640376</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Leite Em Po La Serenissima Sache 400g Integral</t>
+          <t>Form Infan Nestogeno2 800g</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 56,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f509e03c-6dd8-4861-9cd6-9958f8497d90.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f16d617b-bef6-4a3d-b7d5-d078f609879c.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891000062777</t>
         </is>
       </c>
     </row>
@@ -596,7 +626,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Leite Em Pó Itambe Sache 400g Integral Instantâneo</t>
+          <t>Leite Em Pó Itambe Sache 400g Integral</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,7 +636,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95a9e119-386e-4f58-aeaf-8db799d13ae7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5e9f1fb1-7920-45c5-b9ce-e0dafe223392.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896051130116</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Leite Em Pó Molico Desnatado Lata 280g</t>
+          <t>Leite Em Pó Itambe Sache 400g Integral Instantâneo</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 27,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6891c6f-622a-4bfb-b489-830088d876c5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95a9e119-386e-4f58-aeaf-8db799d13ae7.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896051130116</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Leite Em Po Italac Sch 200g Desn</t>
+          <t>Comp Lact Em Po Leitsol Blend 400g S/açu</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1172216e-6e81-49aa-9225-825b7d00c6e6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9e8a43b-9636-42b3-899f-285184a33730.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896048706225</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Leite Em Po Italac Sch 200g Int</t>
+          <t>Comp Lact Em Po Sol Blend Sch 400g C/açu</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c6c3d56a-cd21-41b8-bbbe-aaaec180e12c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f93eb01a-3623-4faa-ae8f-8fec6774f149.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896048706201</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Leite Em Pó Italac Instantaneo Sache 200g Desnatado</t>
+          <t>Leite Em Pó Italac Integral Sachê 400g</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02383ebe-b9b8-4fff-b696-43159095d889.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/edd0b7c9-d56f-4dac-a255-731ebd515183.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7898080640376</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Comp Lact Molico Lt 260g Zero Lact</t>
+          <t>Formula Infantil Ninho Fases 1+ 400g Lata</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 31,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb94cf3c-b859-4de6-858e-8dfa86261344.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b86ce3cd-74ae-465a-9fe5-bed61138c64a.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891000001080</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Comp Lact Em Po Sol Blend Sch 400g C/açu</t>
+          <t>Leite Em Pó Molico Desnatado Lata 280g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 27,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f93eb01a-3623-4faa-ae8f-8fec6774f149.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6891c6f-622a-4bfb-b489-830088d876c5.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7891000101506</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Comp Lact Em Po Leitsol Blend 400g S/açu</t>
+          <t>Comp Lact Molico Lt 260g Zero Lact</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 31,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9e8a43b-9636-42b3-899f-285184a33730.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb94cf3c-b859-4de6-858e-8dfa86261344.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891000251638</t>
         </is>
       </c>
     </row>
@@ -812,125 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Formula Infantil Ninho Fases 1+ 400g Lata</t>
+          <t>Composto Lacteo Molico Lata 260g Fibras</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b86ce3cd-74ae-465a-9fe5-bed61138c64a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Leite em po</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Form Infan Nestogeno2 800g</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>R$ 56,99</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f16d617b-bef6-4a3d-b7d5-d078f609879c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Leite em po</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Leite Em Pó Ninho Sachê 350g Integral Instântaneo Promo 10% Desconto</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3cd68c7-2bf1-4970-b047-de325d0ff1a7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Leite em po</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Composto Lacteo Molico Lata 260g Fibras</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0aacd692-5fb1-4b51-8a31-35a0b668cf30.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Leite em po</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Form Infan Nan Comf1 400g 0 A 6 Meses</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b606c092-06e1-4181-8e85-e61b24776920.jpg</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891000285015</t>
         </is>
       </c>
     </row>
